--- a/nmadb/479808.xlsx
+++ b/nmadb/479808.xlsx
@@ -1,6 +1,354 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Outcome:</t>
+  </si>
+  <si>
+    <t>ACR50</t>
+  </si>
+  <si>
+    <t>Moreland (A0001)</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>abatacept</t>
+  </si>
+  <si>
+    <t>Genovese (A0002)</t>
+  </si>
+  <si>
+    <t>adalimumab</t>
+  </si>
+  <si>
+    <t>anakinra</t>
+  </si>
+  <si>
+    <t>Schiff (A0003)</t>
+  </si>
+  <si>
+    <t>etanercept</t>
+  </si>
+  <si>
+    <t>infliximab</t>
+  </si>
+  <si>
+    <t>Kremer (A0004)</t>
+  </si>
+  <si>
+    <t>rituximab</t>
+  </si>
+  <si>
+    <t>Kremer (A0005)</t>
+  </si>
+  <si>
+    <t>Weinblatt (A0006)</t>
+  </si>
+  <si>
+    <t>ASSURE (A0007)</t>
+  </si>
+  <si>
+    <t>Bejarano (A0008)</t>
+  </si>
+  <si>
+    <t>Breedveld (A0009)</t>
+  </si>
+  <si>
+    <t>Furst (A0010)</t>
+  </si>
+  <si>
+    <t>Keystone (A0011)</t>
+  </si>
+  <si>
+    <t>Kim (A0012)</t>
+  </si>
+  <si>
+    <t>Miyasaka (A0013)</t>
+  </si>
+  <si>
+    <t>Van De Putte (A0014)</t>
+  </si>
+  <si>
+    <t>Weinblatt (A0015)</t>
+  </si>
+  <si>
+    <t>Bresnihan (A0016)</t>
+  </si>
+  <si>
+    <t>Fleischiman (A0017)</t>
+  </si>
+  <si>
+    <t>Cohen (A0018)</t>
+  </si>
+  <si>
+    <t>Cohen (A0019)</t>
+  </si>
+  <si>
+    <t>Genovese (A0020)</t>
+  </si>
+  <si>
+    <t>Moreland (A0021)</t>
+  </si>
+  <si>
+    <t>Weinblatt (A0022)</t>
+  </si>
+  <si>
+    <t>COMET (A0023)</t>
+  </si>
+  <si>
+    <t>TEMPO (A0024)</t>
+  </si>
+  <si>
+    <t>Maini (A0025)</t>
+  </si>
+  <si>
+    <t>ASPIRE (A0026)</t>
+  </si>
+  <si>
+    <t>ATTRACT (A0027)</t>
+  </si>
+  <si>
+    <t>Quinn (A0028)</t>
+  </si>
+  <si>
+    <t>Edwards (A0029)</t>
+  </si>
+  <si>
+    <t>DANCER (A0030)</t>
+  </si>
+  <si>
+    <t>REFLEX (A0031)</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="AdvTT5843c571"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +422,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +490,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +625,1378 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>52</v>
+      </c>
+      <c r="F4" s="18">
+        <v>256</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>133</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>63</v>
+      </c>
+      <c r="F6" s="18">
+        <v>156</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>22</v>
+      </c>
+      <c r="F7" s="18">
+        <v>110</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A8" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>42</v>
+      </c>
+      <c r="F8" s="18">
+        <v>115</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15">
+        <v>7</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18">
+        <v>119</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>169</v>
+      </c>
+      <c r="F10" s="18">
+        <v>424</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>36</v>
+      </c>
+      <c r="F11" s="18">
+        <v>214</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>24</v>
+      </c>
+      <c r="F12" s="18">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6</v>
+      </c>
+      <c r="F13" s="18">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>42</v>
+      </c>
+      <c r="F16" s="18">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>33</v>
+      </c>
+      <c r="F17" s="18">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>158</v>
+      </c>
+      <c r="F18" s="18">
+        <v>268</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>111</v>
+      </c>
+      <c r="F19" s="18">
+        <v>257</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>77</v>
+      </c>
+      <c r="F20" s="18">
+        <v>261</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>32</v>
+      </c>
+      <c r="F21" s="18">
+        <v>270</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>86</v>
+      </c>
+      <c r="F22" s="18">
+        <v>207</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>19</v>
+      </c>
+      <c r="F23" s="18">
+        <v>200</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>28</v>
+      </c>
+      <c r="F24" s="18">
+        <v>65</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>9</v>
+      </c>
+      <c r="F25" s="18">
+        <v>63</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>22</v>
+      </c>
+      <c r="F26" s="18">
+        <v>91</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5</v>
+      </c>
+      <c r="F27" s="18">
+        <v>87</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>25</v>
+      </c>
+      <c r="F28" s="18">
+        <v>113</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>9</v>
+      </c>
+      <c r="F29" s="18">
+        <v>110</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>37</v>
+      </c>
+      <c r="F30" s="18">
+        <v>67</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="3">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>5</v>
+      </c>
+      <c r="F31" s="18">
+        <v>62</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="3">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7">
+        <v>22</v>
+      </c>
+      <c r="F36" s="18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="3">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2</v>
+      </c>
+      <c r="F37" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7">
+        <v>43</v>
+      </c>
+      <c r="F38" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
+        <v>20</v>
+      </c>
+      <c r="F39" s="18">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="3">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7">
+        <v>25</v>
+      </c>
+      <c r="F40" s="18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>33</v>
+      </c>
+      <c r="F41" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3">
+        <v>21</v>
+      </c>
+      <c r="D42" s="21">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>31</v>
+      </c>
+      <c r="F42" s="18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="3">
+        <v>21</v>
+      </c>
+      <c r="D43" s="21">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <v>4</v>
+      </c>
+      <c r="F43" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3">
+        <v>22</v>
+      </c>
+      <c r="D44" s="21">
+        <v>5</v>
+      </c>
+      <c r="E44" s="7">
+        <v>23</v>
+      </c>
+      <c r="F44" s="18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="3">
+        <v>22</v>
+      </c>
+      <c r="D45" s="21">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="3">
+        <v>23</v>
+      </c>
+      <c r="D46" s="21">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7">
+        <v>181</v>
+      </c>
+      <c r="F46" s="18">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3">
+        <v>23</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>119</v>
+      </c>
+      <c r="F47" s="18">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="3">
+        <v>24</v>
+      </c>
+      <c r="D48" s="21">
+        <v>5</v>
+      </c>
+      <c r="E48" s="7">
+        <v>160</v>
+      </c>
+      <c r="F48" s="18">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="3">
+        <v>24</v>
+      </c>
+      <c r="D49" s="21">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7">
+        <v>98</v>
+      </c>
+      <c r="F49" s="18">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="3">
+        <v>25</v>
+      </c>
+      <c r="D50" s="21">
+        <v>6</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="3">
+        <v>25</v>
+      </c>
+      <c r="D51" s="21">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="3">
+        <v>26</v>
+      </c>
+      <c r="D52" s="21">
+        <v>6</v>
+      </c>
+      <c r="E52" s="7">
+        <v>161</v>
+      </c>
+      <c r="F52" s="18">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3">
+        <v>26</v>
+      </c>
+      <c r="D53" s="21">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
+        <v>88</v>
+      </c>
+      <c r="F53" s="18">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="3">
+        <v>27</v>
+      </c>
+      <c r="D54" s="21">
+        <v>6</v>
+      </c>
+      <c r="E54" s="7">
+        <v>18</v>
+      </c>
+      <c r="F54" s="18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="3">
+        <v>27</v>
+      </c>
+      <c r="D55" s="21">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7">
+        <v>7</v>
+      </c>
+      <c r="F55" s="18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="3">
+        <v>28</v>
+      </c>
+      <c r="D56" s="21">
+        <v>6</v>
+      </c>
+      <c r="E56" s="7">
+        <v>8</v>
+      </c>
+      <c r="F56" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="3">
+        <v>28</v>
+      </c>
+      <c r="D57" s="21">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7">
+        <v>4</v>
+      </c>
+      <c r="F57" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="3">
+        <v>29</v>
+      </c>
+      <c r="D58" s="21">
+        <v>7</v>
+      </c>
+      <c r="E58" s="7">
+        <v>17</v>
+      </c>
+      <c r="F58" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="3">
+        <v>29</v>
+      </c>
+      <c r="D59" s="21">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7">
+        <v>5</v>
+      </c>
+      <c r="F59" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="3">
+        <v>30</v>
+      </c>
+      <c r="D60" s="21">
+        <v>7</v>
+      </c>
+      <c r="E60" s="7">
+        <v>41</v>
+      </c>
+      <c r="F60" s="18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="3">
+        <v>30</v>
+      </c>
+      <c r="D61" s="21">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <v>16</v>
+      </c>
+      <c r="F61" s="18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="3">
+        <v>31</v>
+      </c>
+      <c r="D62" s="21">
+        <v>7</v>
+      </c>
+      <c r="E62" s="7">
+        <v>80</v>
+      </c>
+      <c r="F62" s="22">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="3">
+        <v>31</v>
+      </c>
+      <c r="D63" s="21">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7">
+        <v>10</v>
+      </c>
+      <c r="F63" s="18">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>